--- a/dados/questionario.xlsx
+++ b/dados/questionario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo_Nascimento\Documents\GitHub\Introducao_Ciencias_de_Dados\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31627DBA-F177-4445-8721-FCBE555B0380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0C1E8E5-80C1-4069-A116-4883CE8DB40E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,9 +39,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>partcipante</t>
   </si>
   <si>
     <t>pergunta_1</t>
@@ -75,6 +72,9 @@
   </si>
   <si>
     <t>pergunta_11</t>
+  </si>
+  <si>
+    <t>participante</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
   <dimension ref="A1:L61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:L61"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,40 +477,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
